--- a/Importaciones.xlsx
+++ b/Importaciones.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVINSTEVEN\Documents\GitHub\laboratorio-1-Aplicada-III\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="15120" windowHeight="7245"/>
   </bookViews>
@@ -300,8 +305,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,12 +342,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -351,6 +362,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,7 +416,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,9 +448,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,6 +483,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -638,14 +659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="10" style="2" customWidth="1"/>
@@ -653,7 +674,7 @@
     <col min="4" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,490 +697,491 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1991</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1992</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1993</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>1994</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>1995</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>1996</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>1997</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>1998</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>1999</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>2000</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>2001</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>2002</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>2003</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>2004</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>2005</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>2006</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>2007</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>2008</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>2009</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>2010</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="4" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
